--- a/BOS-Onboarding-v1.8.xlsx
+++ b/BOS-Onboarding-v1.8.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Service Entry Form" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Stakeholder Expectations" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Signal Definitions" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Data Flow Mapping" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Impact Signals" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Data Flow Mapping" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -22,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="22">
+  <fonts count="28">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -148,8 +149,36 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00666666"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -189,6 +218,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
         <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D71E28"/>
+        <bgColor rgb="00D71E28"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDEBF7"/>
+        <bgColor rgb="00DDEBF7"/>
       </patternFill>
     </fill>
   </fills>
@@ -248,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -356,6 +397,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,7 +786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -959,47 +1024,128 @@
         <f>IF('Signal Definitions'!B8="","",'Signal Definitions'!B8)</f>
         <v/>
       </c>
-      <c r="D18">
+      <c r="C18">
         <f>IF('Signal Definitions'!C8="","",'Signal Definitions'!C8)</f>
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <f>IF('Signal Definitions'!#REF!="","",'Signal Definitions'!#REF!)</f>
+        <f>IF('Signal Definitions'!A9="","",'Signal Definitions'!A9)</f>
         <v/>
       </c>
       <c r="B19">
-        <f>IF('Signal Definitions'!#REF!="","",'Signal Definitions'!#REF!)</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>IF('Signal Definitions'!#REF!="","",'Signal Definitions'!#REF!)</f>
+        <f>IF('Signal Definitions'!B9="","",'Signal Definitions'!B9)</f>
+        <v/>
+      </c>
+      <c r="C19">
+        <f>IF('Signal Definitions'!C9="","",'Signal Definitions'!C9)</f>
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <f>IF('Signal Definitions'!A9="","",'Signal Definitions'!A9)</f>
+        <f>IF('Signal Definitions'!A10="","",'Signal Definitions'!A10)</f>
         <v/>
       </c>
       <c r="B20">
-        <f>IF('Signal Definitions'!B9="","",'Signal Definitions'!B9)</f>
-        <v/>
-      </c>
-      <c r="D20">
-        <f>IF('Signal Definitions'!C9="","",'Signal Definitions'!C9)</f>
+        <f>IF('Signal Definitions'!B10="","",'Signal Definitions'!B10)</f>
+        <v/>
+      </c>
+      <c r="C20">
+        <f>IF('Signal Definitions'!C10="","",'Signal Definitions'!C10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="51" t="inlineStr">
+        <is>
+          <t>BUSINESS IMPACT SIGNALS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="52" t="inlineStr">
+        <is>
+          <t>IMPACT</t>
+        </is>
+      </c>
+      <c r="B23" s="52" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="C23" s="52" t="inlineStr">
+        <is>
+          <t>CATEGORY</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <f>IF('Impact Signals'!A7="","",'Impact Signals'!A7)</f>
+        <v/>
+      </c>
+      <c r="B24">
+        <f>IF('Impact Signals'!B7="","",'Impact Signals'!B7)</f>
+        <v/>
+      </c>
+      <c r="C24">
+        <f>IF('Impact Signals'!C7="","",'Impact Signals'!C7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <f>IF('Impact Signals'!A8="","",'Impact Signals'!A8)</f>
+        <v/>
+      </c>
+      <c r="B25">
+        <f>IF('Impact Signals'!B8="","",'Impact Signals'!B8)</f>
+        <v/>
+      </c>
+      <c r="C25">
+        <f>IF('Impact Signals'!C8="","",'Impact Signals'!C8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <f>IF('Impact Signals'!A9="","",'Impact Signals'!A9)</f>
+        <v/>
+      </c>
+      <c r="B26">
+        <f>IF('Impact Signals'!B9="","",'Impact Signals'!B9)</f>
+        <v/>
+      </c>
+      <c r="C26">
+        <f>IF('Impact Signals'!C9="","",'Impact Signals'!C9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <f>IF('Impact Signals'!A10="","",'Impact Signals'!A10)</f>
+        <v/>
+      </c>
+      <c r="B27">
+        <f>IF('Impact Signals'!B10="","",'Impact Signals'!B10)</f>
+        <v/>
+      </c>
+      <c r="C27">
+        <f>IF('Impact Signals'!C10="","",'Impact Signals'!C10)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B7:D7"/>
@@ -2692,14 +2838,14 @@
     <row r="2">
       <c r="A2" s="40" t="inlineStr">
         <is>
-          <t>Step 3: You've defined what stakeholders expect. Now ask yourself:</t>
+          <t>Step 3: You've defined what stakeholders expect. Now define signals that tell you IF you're meeting them.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="41" t="inlineStr">
         <is>
-          <t>"How would I KNOW if we're meeting those expectations? What would I look at?" Your answer is your signal.</t>
+          <t>What metric would show me whether this expectation is being met right now?</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2921,160 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" style="16" min="1" max="1"/>
+    <col width="60" customWidth="1" style="16" min="2" max="2"/>
+    <col width="25" customWidth="1" style="16" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" s="16">
+      <c r="A1" s="45" t="inlineStr">
+        <is>
+          <t>BOS ONBOARDING - IMPACT SIGNALS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="46" t="inlineStr">
+        <is>
+          <t>Step 4: When expectations AREN'T met, stakeholders suffer. Now define how to count the damage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="47" t="inlineStr">
+        <is>
+          <t>How many [customers/dollars/cases] are affected when this signal goes red?</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" s="16">
+      <c r="A5" s="48" t="inlineStr">
+        <is>
+          <t>What consequence to measure?</t>
+        </is>
+      </c>
+      <c r="B5" s="48" t="inlineStr">
+        <is>
+          <t>How bad when we fail?</t>
+        </is>
+      </c>
+      <c r="C5" s="48" t="inlineStr">
+        <is>
+          <t>Impact Category</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1" s="16">
+      <c r="A6" s="49" t="inlineStr">
+        <is>
+          <t>Name the impact you want to quantify during incidents</t>
+        </is>
+      </c>
+      <c r="B6" s="49" t="inlineStr">
+        <is>
+          <t>What are you counting? (e.g., customers, dollars)</t>
+        </is>
+      </c>
+      <c r="C6" s="49" t="inlineStr">
+        <is>
+          <t>What type of impact? (Customer, Financial, Legal/Risk, Operational)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="50" t="inlineStr">
+        <is>
+          <t>Customers Blocked</t>
+        </is>
+      </c>
+      <c r="B7" s="50" t="inlineStr">
+        <is>
+          <t>Loan applicants unable to proceed due to missing credit scores</t>
+        </is>
+      </c>
+      <c r="C7" s="50" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="50" t="inlineStr">
+        <is>
+          <t>Loan Revenue at Risk</t>
+        </is>
+      </c>
+      <c r="B8" s="50" t="inlineStr">
+        <is>
+          <t>Loan origination revenue opportunity lost to failed credit checks</t>
+        </is>
+      </c>
+      <c r="C8" s="50" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="50" t="inlineStr">
+        <is>
+          <t>FCRA Timing Violations</t>
+        </is>
+      </c>
+      <c r="B9" s="50" t="inlineStr">
+        <is>
+          <t>Credit checks exceeding 30-day FCRA requirement</t>
+        </is>
+      </c>
+      <c r="C9" s="50" t="inlineStr">
+        <is>
+          <t>Legal/Risk</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="50" t="inlineStr">
+        <is>
+          <t>Manual Interventions</t>
+        </is>
+      </c>
+      <c r="B10" s="50" t="inlineStr">
+        <is>
+          <t>Credit check failures requiring processor intervention</t>
+        </is>
+      </c>
+      <c r="C10" s="50" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:D1"/>
@@ -2966,13 +3265,6 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-    </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
@@ -3081,13 +3373,6 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-    </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
@@ -3169,8 +3454,87 @@
         </is>
       </c>
     </row>
-    <row r="19"/>
-    <row r="20"/>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Impact Signals</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>What consequence to measure?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>signal_definitions.signal_display_name</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>IMPACT column</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Impact Signals</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>How bad when we fail?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>signal_definitions.description_business</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>DESCRIPTION column</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Impact Signals</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Impact Category</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>signal_definitions.impact_category</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>CATEGORY column</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
